--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>009474</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>国泰致远优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>44.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1623</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>005730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>国泰江源优势精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>38.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005730</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.66</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011325</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.66</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>011325</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>国泰江源优势精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>94.98</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009474</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰致远优势混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1364,7 +1365,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -1380,6 +1380,442 @@
       </c>
       <c r="H15" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰融信灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1821,4 +1822,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2562,4 +2563,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2571,7 +2572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2582,17 +2583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2602,14 +2623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.66</v>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2618,14 +2661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.64</v>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2634,14 +2699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.55</v>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2650,13 +2737,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3160,7 +3161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3171,17 +3172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3191,14 +3212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.21</v>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3207,14 +3250,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>5.66</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="4">
@@ -3223,14 +3356,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>3.64</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="5">
@@ -3239,14 +3372,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>5.55</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="6">
@@ -3255,13 +3388,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3293,7 +3294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3304,17 +3305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3324,14 +3345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3340,14 +3383,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3356,14 +3489,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>5.66</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="5">
@@ -3372,14 +3505,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>3.64</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="6">
@@ -3388,14 +3521,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.55</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="7">
@@ -3404,13 +3537,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002266-浙富控股.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,361 +457,413 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+      <c r="D8" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -868,36 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009474</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰致远优势混合</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.86</t>
+          <t>29.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.93</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1623</t>
+          <t>0.4331</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -906,36 +958,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005730</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.21</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.66</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7080</t>
+          <t>0.4329</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -944,36 +996,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>32.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8305</t>
+          <t>0.4204</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -982,36 +1034,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>16.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2406</t>
+          <t>0.3071</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1020,36 +1072,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>32.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2117</t>
+          <t>0.2005</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1058,32 +1110,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>32.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1109</t>
+          <t>0.1367</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1096,36 +1148,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>92.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0859</t>
+          <t>0.1303</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1134,36 +1186,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>32.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0753</t>
+          <t>0.0673</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1172,36 +1224,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>516590</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0518</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1210,36 +1262,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011325</t>
+          <t>001226</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
+          <t>中邮稳健添利灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78.66</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1248,36 +1300,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1286,36 +1338,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1324,36 +1376,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1362,29 +1414,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>92.56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1451,747 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1828,747 +2627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005730</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>64.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6094</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009474</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰致远优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.51</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7769</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银景气行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2931</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2527</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001468</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发改革先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2311</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011325</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰江源优势精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1798</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1035</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0872</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011824</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商汇金量化臻选股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011825</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商汇金量化臻选股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>40.39</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>40.39</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2595,7 +2654,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2625,36 +2684,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>009474</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>国泰致远优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.87</t>
+          <t>44.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>77.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4331</t>
+          <t>2.1623</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2663,36 +2722,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>005730</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>国泰江源优势精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>38.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>78.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4329</t>
+          <t>1.7080</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2701,36 +2760,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.60</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4204</t>
+          <t>0.8305</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2739,36 +2798,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.60</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3071</t>
+          <t>0.2406</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2777,36 +2836,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.60</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2005</t>
+          <t>0.2117</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2815,32 +2874,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.80</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1367</t>
+          <t>0.1109</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2853,36 +2912,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1303</t>
+          <t>0.0859</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2891,36 +2950,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32.80</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0673</t>
+          <t>0.0753</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2929,36 +2988,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>516590</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0518</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2967,36 +3026,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001226</t>
+          <t>011325</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮稳健添利灵活配置混合</t>
+          <t>国泰江源优势精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>78.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3005,36 +3064,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3043,36 +3102,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3081,36 +3140,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>94.98</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -3119,300 +3178,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
+          <t>诺安中证500指数增强C</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>92.82</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3426,144 +3214,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.21</v>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.66</v>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.64</v>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.55</v>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.21</v>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>